--- a/data/Syntax Helper.xlsx
+++ b/data/Syntax Helper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Google Drive\#GitHub\BotC-Generator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECEFC134-771A-4AB1-906C-E5844BA832A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA32DAC6-C4F1-4510-90B9-09EE6D2F2270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12570" yWindow="1170" windowWidth="15570" windowHeight="13185" xr2:uid="{5280D0CC-224D-4F5C-A026-CA0C4CF5529D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15315" windowHeight="15150" xr2:uid="{5280D0CC-224D-4F5C-A026-CA0C4CF5529D}"/>
   </bookViews>
   <sheets>
     <sheet name="Syntax Helper" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +478,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/Syntax Helper.xlsx
+++ b/data/Syntax Helper.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Google Drive\#GitHub\BotC-Generator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robson\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA32DAC6-C4F1-4510-90B9-09EE6D2F2270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ECEFC134-771A-4AB1-906C-E5844BA832A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15315" windowHeight="15150" xr2:uid="{5280D0CC-224D-4F5C-A026-CA0C4CF5529D}"/>
+    <workbookView xWindow="12570" yWindow="1170" windowWidth="15570" windowHeight="13185" xr2:uid="{5280D0CC-224D-4F5C-A026-CA0C4CF5529D}"/>
   </bookViews>
   <sheets>
     <sheet name="Syntax Helper" sheetId="1" r:id="rId1"/>
@@ -137,9 +137,9 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -478,7 +478,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
